--- a/Elektrik/12V/12VAuslegung.xlsx
+++ b/Elektrik/12V/12VAuslegung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t xml:space="preserve">Verbraucher</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">GROßVERBRAUCHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezüglich Spannungsabfall (um sicher zu stellen, dassnich fie richtige leistung ankommt)</t>
   </si>
   <si>
     <t xml:space="preserve">Kühlschrank</t>
@@ -507,9 +510,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>186840</xdr:colOff>
+      <xdr:colOff>186480</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -523,7 +526,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15733080" y="5180040"/>
-          <a:ext cx="6621480" cy="3809160"/>
+          <a:ext cx="6621120" cy="3808800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -544,9 +547,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>544320</xdr:colOff>
+      <xdr:colOff>543960</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -560,7 +563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17018640" y="2623320"/>
-          <a:ext cx="4362480" cy="2448360"/>
+          <a:ext cx="4362120" cy="2448000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -574,16 +577,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390240</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1031040</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>207360</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -596,8 +599,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15237720" y="2115720"/>
-          <a:ext cx="4475520" cy="2981520"/>
+          <a:off x="11000880" y="1997280"/>
+          <a:ext cx="4475160" cy="2981160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,7 +623,7 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -674,10 +677,13 @@
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
@@ -710,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N3" s="0" t="n">
         <v>57.18</v>
@@ -718,7 +724,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>1</v>
@@ -751,7 +757,7 @@
         <v>20</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N4" s="0" t="n">
         <v>20</v>
@@ -759,7 +765,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>1</v>
@@ -792,7 +798,7 @@
         <v>20</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N5" s="0" t="n">
         <v>0.02</v>
@@ -800,7 +806,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>1</v>
@@ -841,7 +847,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4" t="n">
         <f aca="false">F3+F4+3*F5+F6</f>
@@ -863,7 +869,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -877,7 +883,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>2</v>
@@ -911,7 +917,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>2</v>
@@ -946,7 +952,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>2</v>
@@ -981,7 +987,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>2</v>
@@ -1014,16 +1020,16 @@
         <v>5</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N12" s="0" t="n">
-        <f aca="false">G10+G11+G12+G13+G13+G14+G9</f>
-        <v>25</v>
+        <f aca="false">2*(G10+G11+G12+G13+G13+G14+G9+G15)*2</f>
+        <v>102</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>1</v>
@@ -1056,16 +1062,16 @@
         <v>10</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N13" s="0" t="n">
-        <f aca="false">G3+G4+G5+G6</f>
-        <v>17.5</v>
+        <f aca="false">(G3+G4+G5+G6)*2</f>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>1</v>
@@ -1106,7 +1112,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">SUM(F9:F14)</f>
@@ -1144,7 +1150,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>1</v>
@@ -1168,7 +1174,7 @@
       </c>
       <c r="H18" s="4" t="n">
         <f aca="false">(G18*2*F18)/(C18*$N$3*$N$5)</f>
-        <v>36.4346508103066</v>
+        <v>36.4346508103067</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1184,7 +1190,7 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
@@ -1210,7 +1216,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>14.4</v>
@@ -1238,7 +1244,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>14.4</v>
@@ -1266,7 +1272,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>12</v>
@@ -1294,33 +1300,33 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D29" s="0" t="n">
         <f aca="false">B29/10</f>
@@ -1331,18 +1337,18 @@
         <v>50</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" s="0" t="n">
         <f aca="false">B30/10</f>
@@ -1353,18 +1359,18 @@
         <v>50</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>80</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" s="0" t="n">
         <f aca="false">B31/10</f>
@@ -1375,23 +1381,23 @@
         <v>40</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Elektrik/12V/12VAuslegung.xlsx
+++ b/Elektrik/12V/12VAuslegung.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t xml:space="preserve">Verbraucher</t>
   </si>
@@ -61,27 +61,33 @@
     <t xml:space="preserve">Bezüglich Spannungsabfall (um sicher zu stellen, dassnich fie richtige leistung ankommt)</t>
   </si>
   <si>
+    <t xml:space="preserve">Raspberry Pi 3 B Leistung (5W): https://www.pidramble.com/wiki/benchmarks/power-consumption </t>
+  </si>
+  <si>
     <t xml:space="preserve">Kühlschrank</t>
   </si>
   <si>
+    <t xml:space="preserve">12V Router WLAN (5W): https://www.amumot.de/wlan-im-auto-internet-fuer-unterwegs-im-wohnmobil/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standheizung (3A Nennstrom, 15A Anlaufstrom)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leitfähigkeit</t>
   </si>
   <si>
-    <t xml:space="preserve">Standheizung (3A Nennstrom, 15A Anlaufstrom)</t>
+    <t xml:space="preserve">Steckdosen Küche 12V (Laptop, Handy, Powerbank, Kamera,)</t>
   </si>
   <si>
     <t xml:space="preserve">Kabelrohre</t>
   </si>
   <si>
-    <t xml:space="preserve">Steckdosen Küche 12V (Laptop, Handy, Powerbank, Kamera,)</t>
+    <t xml:space="preserve">Steckdose hinten</t>
   </si>
   <si>
     <t xml:space="preserve"> Spannungsfall in %</t>
   </si>
   <si>
-    <t xml:space="preserve">Steckdose hinten</t>
-  </si>
-  <si>
     <t xml:space="preserve">SUMME</t>
   </si>
   <si>
@@ -110,6 +116,12 @@
   </si>
   <si>
     <t xml:space="preserve">Gaswarner (1,2W-2W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wlan router</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspberry (5W converter)</t>
   </si>
   <si>
     <t xml:space="preserve">SUMME (&lt;12A): </t>
@@ -504,15 +516,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>220320</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:colOff>220680</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>186480</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:colOff>186120</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -525,8 +537,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15733080" y="5180040"/>
-          <a:ext cx="6621120" cy="3808800"/>
+          <a:off x="15733440" y="5531040"/>
+          <a:ext cx="6620400" cy="3808080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -547,9 +559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>543960</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:colOff>543600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -563,7 +575,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17018640" y="2623320"/>
-          <a:ext cx="4362120" cy="2448000"/>
+          <a:ext cx="4361760" cy="2447640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -577,16 +589,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1031040</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>675720</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>628560</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1635120</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -599,8 +611,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11000880" y="1997280"/>
-          <a:ext cx="4475160" cy="2981160"/>
+          <a:off x="8888040" y="3647880"/>
+          <a:ext cx="4474800" cy="2980800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -620,10 +632,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -680,10 +692,13 @@
       <c r="H2" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="M2" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
@@ -706,7 +721,7 @@
         <v>3.5</v>
       </c>
       <c r="H3" s="4" t="n">
-        <f aca="false">(2*G3*F3)/($N$5*$N$3*12)</f>
+        <f aca="false">(2*G3*F3)/($N$6*$N$4*12)</f>
         <v>4.25070926120244</v>
       </c>
       <c r="I3" s="4" t="n">
@@ -716,15 +731,12 @@
         <v>15</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>57.18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>1</v>
@@ -747,7 +759,7 @@
         <v>5.25</v>
       </c>
       <c r="H4" s="4" t="n">
-        <f aca="false">(G4*2*F4)/(C4*$N$3*$N$5)</f>
+        <f aca="false">(G4*2*F4)/(C4*$N$4*$N$6)</f>
         <v>2.29538300104932</v>
       </c>
       <c r="I4" s="4" t="n">
@@ -757,15 +769,15 @@
         <v>20</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>20</v>
+        <v>57.18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>1</v>
@@ -788,7 +800,7 @@
         <v>3.5</v>
       </c>
       <c r="H5" s="4" t="n">
-        <f aca="false">(G5*2*F5)/(C5*$N$3*$N$5)</f>
+        <f aca="false">(G5*2*F5)/(C5*$N$4*$N$6)</f>
         <v>7.65127667016439</v>
       </c>
       <c r="I5" s="4" t="n">
@@ -798,15 +810,15 @@
         <v>20</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.02</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>1</v>
@@ -829,7 +841,7 @@
         <v>5.25</v>
       </c>
       <c r="H6" s="4" t="n">
-        <f aca="false">(G6*2*F6)/(C6*$N$3*$N$5)</f>
+        <f aca="false">(G6*2*F6)/(C6*$N$4*$N$6)</f>
         <v>11.4769150052466</v>
       </c>
       <c r="I6" s="4" t="n">
@@ -837,6 +849,12 @@
       </c>
       <c r="J6" s="4" t="n">
         <v>20</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,7 +865,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4" t="n">
         <f aca="false">F3+F4+3*F5+F6</f>
@@ -857,7 +875,7 @@
         <v>0.5</v>
       </c>
       <c r="H7" s="4" t="n">
-        <f aca="false">(G7*2*F7)/(C7*$N$3*$N$5)</f>
+        <f aca="false">(G7*2*F7)/(C7*$N$4*$N$6)</f>
         <v>5.19801018227041</v>
       </c>
       <c r="I7" s="4" t="n">
@@ -869,7 +887,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -883,7 +901,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>2</v>
@@ -905,7 +923,7 @@
         <v>2.5</v>
       </c>
       <c r="H9" s="4" t="n">
-        <f aca="false">(G9*2*F9)/(C9*$N$3*$N$5)</f>
+        <f aca="false">(G9*2*F9)/(C9*$N$4*$N$6)</f>
         <v>0.728693016206133</v>
       </c>
       <c r="I9" s="4" t="n">
@@ -917,7 +935,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>2</v>
@@ -940,7 +958,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="4" t="n">
-        <f aca="false">(G10*2*F10)/(C10*$N$3*$N$5)</f>
+        <f aca="false">(G10*2*F10)/(C10*$N$4*$N$6)</f>
         <v>0.485795344137422</v>
       </c>
       <c r="I10" s="4" t="n">
@@ -952,7 +970,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>2</v>
@@ -975,7 +993,7 @@
         <v>5.5</v>
       </c>
       <c r="H11" s="4" t="n">
-        <f aca="false">(G11*2*F11)/(C11*$N$3*$N$5)</f>
+        <f aca="false">(G11*2*F11)/(C11*$N$4*$N$6)</f>
         <v>0.667968598188955</v>
       </c>
       <c r="I11" s="4" t="n">
@@ -987,7 +1005,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>2</v>
@@ -1010,7 +1028,7 @@
         <v>5</v>
       </c>
       <c r="H12" s="4" t="n">
-        <f aca="false">(G12*2*F12)/(C12*$N$3*$N$5)</f>
+        <f aca="false">(G12*2*F12)/(C12*$N$4*$N$6)</f>
         <v>0.607244180171777</v>
       </c>
       <c r="I12" s="4" t="n">
@@ -1020,16 +1038,16 @@
         <v>5</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N12" s="0" t="n">
-        <f aca="false">2*(G10+G11+G12+G13+G13+G14+G9+G15)*2</f>
-        <v>102</v>
+        <f aca="false">2*(G10+G11+G12+G13+G13+G14+G9+G17+G15+G16)*2</f>
+        <v>134</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>1</v>
@@ -1052,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="4" t="n">
-        <f aca="false">(G13*2*F13)/(C13*$N$3*$N$5)</f>
+        <f aca="false">(G13*2*F13)/(C13*$N$4*$N$6)</f>
         <v>0.582954412964906</v>
       </c>
       <c r="I13" s="4" t="n">
@@ -1062,7 +1080,7 @@
         <v>10</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N13" s="0" t="n">
         <f aca="false">(G3+G4+G5+G6)*2</f>
@@ -1071,7 +1089,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>1</v>
@@ -1094,7 +1112,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="4" t="n">
-        <f aca="false">(G14*2*F14)/(C14*$N$3*$N$5)</f>
+        <f aca="false">(G14*2*F14)/(C14*$N$4*$N$6)</f>
         <v>0.0582954412964906</v>
       </c>
       <c r="I14" s="4" t="n">
@@ -1105,77 +1123,108 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="C15" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>30</v>
+      <c r="D15" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <f aca="false">D15/C15</f>
+        <v>0.416666666666667</v>
       </c>
       <c r="F15" s="4" t="n">
-        <f aca="false">SUM(F9:F14)</f>
-        <v>6.6</v>
+        <f aca="false">B15*E15</f>
+        <v>0.416666666666667</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="4" t="n">
-        <f aca="false">(G15*2*F15)/(C15*$N$3*$N$5)</f>
-        <v>0.480937390696047</v>
+        <f aca="false">(G15*2*F15)/(C15*$N$4*$N$6)</f>
+        <v>0.242897672068711</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <f aca="false">D16/C16</f>
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <f aca="false">B16*E16</f>
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <f aca="false">(G16*2*F16)/(C16*$N$4*$N$6)</f>
+        <v>0.242897672068711</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="n">
+        <v>12</v>
+      </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <f aca="false">SUM(F9:F16)</f>
+        <v>7.43333333333333</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <f aca="false">(G17*2*F17)/(C17*$N$4*$N$6)</f>
+        <v>0.541661808713225</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <f aca="false">D18/C18</f>
-        <v>166.666666666667</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <f aca="false">B18*E18</f>
-        <v>166.666666666667</v>
-      </c>
-      <c r="G18" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H18" s="4" t="n">
-        <f aca="false">(G18*2*F18)/(C18*$N$3*$N$5)</f>
-        <v>36.4346508103067</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
@@ -1187,223 +1236,263 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <f aca="false">D20/C20</f>
+        <v>166.666666666667</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <f aca="false">B20*E20</f>
+        <v>166.666666666667</v>
+      </c>
+      <c r="G20" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <f aca="false">(G20*2*F20)/(C20*$N$4*$N$6)</f>
+        <v>36.4346508103067</v>
+      </c>
+    </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <f aca="false">B22*D22</f>
-        <v>2016</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="4" t="n">
-        <f aca="false">(2*E22*D22)/($N$5*$N$3*12)</f>
-        <v>20.4034044537717</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <f aca="false">B23*D23</f>
-        <v>288</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4" t="n">
-        <f aca="false">(2*E23*D23)/($N$5*$N$3*12)</f>
-        <v>2.91477206482453</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>35</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>125</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>12</v>
+        <v>14.4</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>300</v>
+        <f aca="false">B24*D24</f>
+        <v>2016</v>
       </c>
       <c r="D24" s="0" t="n">
-        <f aca="false">C24/B24</f>
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="4" t="n">
-        <f aca="false">(2*E24*D24)/($N$5*$N$3*12)</f>
-        <v>3.64346508103066</v>
+        <f aca="false">(2*E24*D24)/($N$6*$N$4*12)</f>
+        <v>20.4034044537717</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>35</v>
       </c>
       <c r="H24" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">B25*D25</f>
+        <v>288</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <f aca="false">(2*E25*D25)/($N$6*$N$4*12)</f>
+        <v>2.91477206482453</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="H25" s="0" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="2" t="s">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="B26" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">C26/B26</f>
+        <v>25</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <f aca="false">(2*E26*D26)/($N$6*$N$4*12)</f>
+        <v>3.64346508103066</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C29" s="0" t="s">
+      <c r="D30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <f aca="false">B29/10</f>
-        <v>10</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <f aca="false">B29/2</f>
-        <v>50</v>
-      </c>
-      <c r="F29" s="0" t="s">
+      <c r="E30" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="F30" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <f aca="false">B30/10</f>
-        <v>10</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <f aca="false">B30/2</f>
-        <v>50</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="D31" s="0" t="n">
         <f aca="false">B31/10</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E31" s="0" t="n">
         <f aca="false">B31/2</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="0" t="s">
+      <c r="A32" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="B32" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">B32/10</f>
+        <v>10</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">B32/2</f>
         <v>50</v>
       </c>
       <c r="F32" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="0" t="s">
+      <c r="B33" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">B33/10</f>
+        <v>8</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">B33/2</f>
+        <v>40</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M1" r:id="rId1" display="Formel: https://campingtech.de/elektronik/kabelquerschnitt-berechnen-12v-wohnmobil-van/"/>
+    <hyperlink ref="M2" r:id="rId2" display="https://www.pidramble.com/wiki/benchmarks/power-consumption"/>
+    <hyperlink ref="M3" r:id="rId3" display="https://www.amumot.de/wlan-im-auto-internet-fuer-unterwegs-im-wohnmobil/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
@@ -1412,6 +1501,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Elektrik/12V/12VAuslegung.xlsx
+++ b/Elektrik/12V/12VAuslegung.xlsx
@@ -516,15 +516,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>220680</xdr:colOff>
+      <xdr:colOff>221040</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>186120</xdr:colOff>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -537,8 +537,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15733440" y="5531040"/>
-          <a:ext cx="6620400" cy="3808080"/>
+          <a:off x="15733800" y="5531400"/>
+          <a:ext cx="6827400" cy="3807360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -552,16 +552,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>174960</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>840240</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>543600</xdr:colOff>
+      <xdr:colOff>335520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -575,7 +575,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17018640" y="2623320"/>
-          <a:ext cx="4361760" cy="2447640"/>
+          <a:ext cx="4361400" cy="2447280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -590,15 +590,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>675720</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:colOff>1278720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1635120</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480240</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -611,8 +611,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8888040" y="3647880"/>
-          <a:ext cx="4474800" cy="2980800"/>
+          <a:off x="9491040" y="4035240"/>
+          <a:ext cx="4474440" cy="2980440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -634,8 +634,8 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -648,6 +648,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="22.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -904,7 +905,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>12</v>
@@ -917,14 +918,14 @@
       </c>
       <c r="F9" s="4" t="n">
         <f aca="false">B9*E9</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>2.5</v>
       </c>
       <c r="H9" s="4" t="n">
         <f aca="false">(G9*2*F9)/(C9*$N$4*$N$6)</f>
-        <v>0.728693016206133</v>
+        <v>0.364346508103066</v>
       </c>
       <c r="I9" s="4" t="n">
         <v>1.5</v>
@@ -1008,7 +1009,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>12</v>
@@ -1022,14 +1023,14 @@
       </c>
       <c r="F12" s="4" t="n">
         <f aca="false">B12*E12</f>
-        <v>0.833333333333333</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>5</v>
       </c>
       <c r="H12" s="4" t="n">
         <f aca="false">(G12*2*F12)/(C12*$N$4*$N$6)</f>
-        <v>0.607244180171777</v>
+        <v>0.303622090085889</v>
       </c>
       <c r="I12" s="4" t="n">
         <v>1.5</v>
@@ -1041,8 +1042,8 @@
         <v>28</v>
       </c>
       <c r="N12" s="0" t="n">
-        <f aca="false">2*(G10+G11+G12+G13+G13+G14+G9+G17+G15+G16)*2</f>
-        <v>134</v>
+        <f aca="false">2*(G10+G11+G12+G13+G13+G14+G9+G17+G15+G16)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1162,7 +1163,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>12</v>
@@ -1176,14 +1177,14 @@
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">B16*E16</f>
-        <v>0.416666666666667</v>
+        <v>0</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4" t="n">
         <f aca="false">(G16*2*F16)/(C16*$N$4*$N$6)</f>
-        <v>0.242897672068711</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>1.5</v>
@@ -1204,14 +1205,14 @@
       </c>
       <c r="F17" s="4" t="n">
         <f aca="false">SUM(F9:F16)</f>
-        <v>7.43333333333333</v>
+        <v>5.6</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="H17" s="4" t="n">
         <f aca="false">(G17*2*F17)/(C17*$N$4*$N$6)</f>
-        <v>0.541661808713225</v>
+        <v>0.408068089075434</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1491,8 +1492,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M1" r:id="rId1" display="Formel: https://campingtech.de/elektronik/kabelquerschnitt-berechnen-12v-wohnmobil-van/"/>
-    <hyperlink ref="M2" r:id="rId2" display="https://www.pidramble.com/wiki/benchmarks/power-consumption"/>
-    <hyperlink ref="M3" r:id="rId3" display="https://www.amumot.de/wlan-im-auto-internet-fuer-unterwegs-im-wohnmobil/"/>
+    <hyperlink ref="M2" r:id="rId2" display="Raspberry Pi 3 B Leistung (5W): https://www.pidramble.com/wiki/benchmarks/power-consumption "/>
+    <hyperlink ref="M3" r:id="rId3" display="12V Router WLAN (5W): https://www.amumot.de/wlan-im-auto-internet-fuer-unterwegs-im-wohnmobil/ "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>

--- a/Elektrik/12V/12VAuslegung.xlsx
+++ b/Elektrik/12V/12VAuslegung.xlsx
@@ -522,9 +522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>185760</xdr:colOff>
+      <xdr:colOff>185400</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -538,12 +538,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15733800" y="5531400"/>
-          <a:ext cx="6827400" cy="3807360"/>
+          <a:ext cx="6827040" cy="3807000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -559,9 +559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>335520</xdr:colOff>
+      <xdr:colOff>335160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -575,12 +575,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17018640" y="2623320"/>
-          <a:ext cx="4361400" cy="2447280"/>
+          <a:ext cx="4361040" cy="2446920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -596,9 +596,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>480240</xdr:colOff>
+      <xdr:colOff>479880</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -612,12 +612,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9491040" y="4035240"/>
-          <a:ext cx="4474440" cy="2980440"/>
+          <a:ext cx="4474080" cy="2980080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -634,8 +634,8 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="N12" s="0" t="n">
         <f aca="false">2*(G10+G11+G12+G13+G13+G14+G9+G17+G15+G16)</f>
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1134,22 +1134,22 @@
         <v>12</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4" t="n">
         <f aca="false">D15/C15</f>
-        <v>0.416666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="F15" s="4" t="n">
         <f aca="false">B15*E15</f>
-        <v>0.416666666666667</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>4</v>
       </c>
       <c r="H15" s="4" t="n">
         <f aca="false">(G15*2*F15)/(C15*$N$4*$N$6)</f>
-        <v>0.242897672068711</v>
+        <v>0.485795344137422</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>1.5</v>
@@ -1163,7 +1163,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>12</v>
@@ -1177,14 +1177,14 @@
       </c>
       <c r="F16" s="4" t="n">
         <f aca="false">B16*E16</f>
-        <v>0</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" s="4" t="n">
         <f aca="false">(G16*2*F16)/(C16*$N$4*$N$6)</f>
-        <v>0</v>
+        <v>0.242897672068711</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>1.5</v>
@@ -1205,14 +1205,14 @@
       </c>
       <c r="F17" s="4" t="n">
         <f aca="false">SUM(F9:F16)</f>
-        <v>5.6</v>
+        <v>6.43333333333333</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>0.5</v>
       </c>
       <c r="H17" s="4" t="n">
         <f aca="false">(G17*2*F17)/(C17*$N$4*$N$6)</f>
-        <v>0.408068089075434</v>
+        <v>0.468792507092612</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,7 +1497,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Elektrik/12V/12VAuslegung.xlsx
+++ b/Elektrik/12V/12VAuslegung.xlsx
@@ -201,7 +201,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -286,6 +286,12 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -403,7 +409,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -421,6 +427,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -522,9 +532,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>185400</xdr:colOff>
+      <xdr:colOff>185040</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -538,7 +548,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15733800" y="5531400"/>
-          <a:ext cx="6827040" cy="3807000"/>
+          <a:ext cx="6826680" cy="3806640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -559,9 +569,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>335160</xdr:colOff>
+      <xdr:colOff>334800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -575,7 +585,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17018640" y="2623320"/>
-          <a:ext cx="4361040" cy="2446920"/>
+          <a:ext cx="4360680" cy="2446560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -596,9 +606,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>479880</xdr:colOff>
+      <xdr:colOff>479520</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -612,7 +622,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9491040" y="4035240"/>
-          <a:ext cx="4474080" cy="2980080"/>
+          <a:ext cx="4473720" cy="2979720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1991520</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1357200</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7995240" y="7291080"/>
+          <a:ext cx="6847200" cy="6913800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -634,8 +681,8 @@
   </sheetPr>
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F53" activeCellId="0" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -859,14 +906,17 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="n">
         <v>12</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
+      <c r="E7" s="4" t="n">
+        <f aca="false">SUM(E3:E6)</f>
+        <v>41.3333333333333</v>
       </c>
       <c r="F7" s="4" t="n">
         <f aca="false">F3+F4+3*F5+F6</f>
@@ -887,7 +937,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="4"/>
@@ -1194,14 +1244,17 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="n">
         <v>12</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
+      <c r="E17" s="4" t="n">
+        <f aca="false">SUM(E9:E16)</f>
+        <v>5.6</v>
       </c>
       <c r="F17" s="4" t="n">
         <f aca="false">SUM(F9:F16)</f>
